--- a/data/Citiparks Feeding Sites- 2014 FULL UPDATE.xlsx
+++ b/data/Citiparks Feeding Sites- 2014 FULL UPDATE.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="245">
   <si>
     <t>Site #</t>
   </si>
@@ -65,18 +65,6 @@
     <t>1710 Belleau Drive</t>
   </si>
   <si>
-    <t>Hot</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes </t>
-  </si>
-  <si>
-    <t>M-F</t>
-  </si>
-  <si>
     <t>Ammon Rec Center</t>
   </si>
   <si>
@@ -89,12 +77,6 @@
     <t>7745 Tioga Street</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>M-Th</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lighthouse Church </t>
   </si>
   <si>
@@ -107,9 +89,6 @@
     <t>2701 Centre Avenue</t>
   </si>
   <si>
-    <t xml:space="preserve">Hot </t>
-  </si>
-  <si>
     <t>Salvation Army- Homewood</t>
   </si>
   <si>
@@ -120,9 +99,6 @@
   </si>
   <si>
     <t>5315 Hillcrest Street, 15224</t>
-  </si>
-  <si>
-    <t>Cold</t>
   </si>
   <si>
     <t>Junior Police Academy</t>
@@ -138,12 +114,6 @@
 Frew Street &amp; Schenly Drive</t>
   </si>
   <si>
-    <t xml:space="preserve">Cold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
     <t>808 Ridge Avenue/ CCAC Alleg.</t>
   </si>
   <si>
@@ -195,9 +165,6 @@
     <t>816 Tripoli Street</t>
   </si>
   <si>
-    <t>Cancel Program</t>
-  </si>
-  <si>
     <t>Ebenezer Baptist Church</t>
   </si>
   <si>
@@ -787,14 +754,18 @@
   </si>
   <si>
     <t>Garfield</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="166" formatCode="[$-1201A]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -891,12 +862,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,10 +944,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1266,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1277,8 +1278,8 @@
     <col min="3" max="3" width="5.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="4" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="9" bestFit="1" customWidth="1"/>
@@ -1291,15 +1292,16 @@
     <col min="19" max="19" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="5.5" style="2"/>
+    <col min="22" max="22" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="5.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:22" s="17" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -1338,28 +1340,31 @@
         <v>11</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>170</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="6">
         <v>40.440624999999997</v>
       </c>
@@ -1375,11 +1380,11 @@
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G2" s="18">
-        <v>41866</v>
+      <c r="F2" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G2" s="22">
+        <v>42231</v>
       </c>
       <c r="H2" s="9">
         <v>25</v>
@@ -1387,41 +1392,44 @@
       <c r="I2" s="9">
         <v>25</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>17</v>
+      <c r="K2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="14">
         <v>15201</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="6">
         <v>40.448666000000003</v>
       </c>
@@ -1432,16 +1440,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G3" s="18">
-        <v>41866</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G3" s="22">
+        <v>42231</v>
       </c>
       <c r="H3" s="9">
         <v>50</v>
@@ -1449,41 +1457,44 @@
       <c r="I3" s="9">
         <v>50</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>17</v>
+      <c r="K3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="14">
         <v>15219</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="6">
         <v>40.419234000000003</v>
       </c>
@@ -1494,16 +1505,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G4" s="18">
-        <v>41866</v>
+        <v>34</v>
+      </c>
+      <c r="F4" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G4" s="22">
+        <v>42231</v>
       </c>
       <c r="I4" s="9">
         <v>25</v>
@@ -1511,41 +1522,44 @@
       <c r="J4" s="9">
         <v>25</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>17</v>
+      <c r="K4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="14">
         <v>15210</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="6">
         <v>40.440624999999997</v>
       </c>
@@ -1556,16 +1570,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G5" s="18">
-        <v>41866</v>
+        <v>36</v>
+      </c>
+      <c r="F5" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G5" s="22">
+        <v>42231</v>
       </c>
       <c r="I5" s="9">
         <v>25</v>
@@ -1573,41 +1587,44 @@
       <c r="J5" s="9">
         <v>25</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>17</v>
+      <c r="K5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="14">
         <v>15208</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="6">
         <v>40.454633000000001</v>
       </c>
@@ -1618,16 +1635,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G6" s="18">
-        <v>41859</v>
+        <v>38</v>
+      </c>
+      <c r="F6" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G6" s="22">
+        <v>42224</v>
       </c>
       <c r="I6" s="9">
         <v>40</v>
@@ -1635,41 +1652,44 @@
       <c r="J6" s="9">
         <v>40</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>17</v>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="14">
         <v>15213</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="9">
         <v>40.457402000000002</v>
       </c>
@@ -1680,16 +1700,16 @@
         <v>16</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G7" s="18">
-        <v>41859</v>
+        <v>137</v>
+      </c>
+      <c r="F7" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G7" s="22">
+        <v>42224</v>
       </c>
       <c r="H7" s="9">
         <v>40</v>
@@ -1697,41 +1717,44 @@
       <c r="I7" s="9">
         <v>40</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>17</v>
+      <c r="K7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="20">
         <v>15208</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="6">
         <v>40.434418999999998</v>
       </c>
@@ -1742,16 +1765,16 @@
         <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G8" s="18">
-        <v>41866</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G8" s="22">
+        <v>42231</v>
       </c>
       <c r="I8" s="9">
         <v>25</v>
@@ -1759,41 +1782,44 @@
       <c r="J8" s="9">
         <v>25</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>17</v>
+      <c r="K8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="14">
         <v>15213</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="6">
         <v>40.458047000000001</v>
       </c>
@@ -1804,16 +1830,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G9" s="18">
-        <v>41866</v>
+        <v>42</v>
+      </c>
+      <c r="F9" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G9" s="22">
+        <v>42231</v>
       </c>
       <c r="H9" s="9">
         <v>25</v>
@@ -1821,41 +1847,44 @@
       <c r="I9" s="9">
         <v>25</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>17</v>
+      <c r="K9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="14">
         <v>15208</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="6">
         <v>40.459453000000003</v>
       </c>
@@ -1866,16 +1895,16 @@
         <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G10" s="18">
-        <v>41866</v>
+        <v>44</v>
+      </c>
+      <c r="F10" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G10" s="22">
+        <v>42231</v>
       </c>
       <c r="I10" s="9">
         <v>25</v>
@@ -1883,41 +1912,44 @@
       <c r="J10" s="9">
         <v>25</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>17</v>
+      <c r="K10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="14">
         <v>15212</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="9">
         <v>40.461863000000001</v>
       </c>
@@ -1928,16 +1960,16 @@
         <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G11" s="18">
-        <v>41859</v>
+        <v>139</v>
+      </c>
+      <c r="F11" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G11" s="22">
+        <v>42224</v>
       </c>
       <c r="H11" s="9">
         <v>25</v>
@@ -1945,41 +1977,44 @@
       <c r="I11" s="9">
         <v>25</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>17</v>
+      <c r="K11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="20">
         <v>15206</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="6">
         <v>40.414226999999997</v>
       </c>
@@ -1990,16 +2025,16 @@
         <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G12" s="18">
-        <v>41866</v>
+        <v>141</v>
+      </c>
+      <c r="F12" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G12" s="22">
+        <v>42231</v>
       </c>
       <c r="H12" s="9">
         <v>200</v>
@@ -2007,41 +2042,44 @@
       <c r="I12" s="9">
         <v>75</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>17</v>
+      <c r="K12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="14">
         <v>15210</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="9">
         <v>40.457087000000001</v>
       </c>
@@ -2052,16 +2090,16 @@
         <v>29</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G13" s="18">
-        <v>41865</v>
+        <v>46</v>
+      </c>
+      <c r="F13" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G13" s="22">
+        <v>42230</v>
       </c>
       <c r="I13" s="9">
         <v>25</v>
@@ -2069,41 +2107,44 @@
       <c r="J13" s="9">
         <v>25</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>23</v>
+      <c r="K13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>2</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="20">
         <v>15212</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="6">
         <v>40.478853000000001</v>
       </c>
@@ -2114,16 +2155,16 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G14" s="18">
-        <v>41866</v>
+        <v>50</v>
+      </c>
+      <c r="F14" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G14" s="22">
+        <v>42231</v>
       </c>
       <c r="H14" s="9">
         <v>25</v>
@@ -2131,41 +2172,44 @@
       <c r="I14" s="9">
         <v>25</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>17</v>
+      <c r="K14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="14">
         <v>15214</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="6">
         <v>40.429082999999999</v>
       </c>
@@ -2176,16 +2220,16 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G15" s="18">
-        <v>41866</v>
+        <v>52</v>
+      </c>
+      <c r="F15" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G15" s="22">
+        <v>42231</v>
       </c>
       <c r="I15" s="9">
         <v>20</v>
@@ -2193,41 +2237,44 @@
       <c r="J15" s="9">
         <v>30</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>17</v>
+      <c r="K15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q15" s="14">
         <v>15203</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="6">
         <v>40.467984000000001</v>
       </c>
@@ -2238,16 +2285,16 @@
         <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G16" s="18">
-        <v>41866</v>
+        <v>54</v>
+      </c>
+      <c r="F16" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G16" s="22">
+        <v>42231</v>
       </c>
       <c r="I16" s="9">
         <v>25</v>
@@ -2255,41 +2302,44 @@
       <c r="J16" s="9">
         <v>25</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>17</v>
+      <c r="K16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="14">
         <v>15215</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="6">
         <v>40.455311000000002</v>
       </c>
@@ -2300,55 +2350,58 @@
         <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G17" s="18">
-        <v>41817</v>
+        <v>23</v>
+      </c>
+      <c r="F17" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G17" s="22">
+        <v>42182</v>
       </c>
       <c r="I17" s="9">
         <v>30</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>17</v>
+      <c r="K17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="14">
         <v>15208</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="6">
         <v>40.455311000000002</v>
       </c>
@@ -2359,16 +2412,16 @@
         <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="18">
-        <v>41827</v>
-      </c>
-      <c r="G18" s="18">
-        <v>41866</v>
+        <v>23</v>
+      </c>
+      <c r="F18" s="22">
+        <v>42192</v>
+      </c>
+      <c r="G18" s="22">
+        <v>42231</v>
       </c>
       <c r="H18" s="9">
         <v>40</v>
@@ -2376,41 +2429,44 @@
       <c r="I18" s="9">
         <v>40</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>17</v>
+      <c r="K18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="14">
         <v>15208</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="9">
         <v>40.454751999999999</v>
       </c>
@@ -2421,16 +2477,16 @@
         <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G19" s="18">
-        <v>41866</v>
+        <v>56</v>
+      </c>
+      <c r="F19" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G19" s="22">
+        <v>42231</v>
       </c>
       <c r="H19" s="9">
         <v>35</v>
@@ -2438,41 +2494,44 @@
       <c r="I19" s="9">
         <v>50</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>17</v>
+      <c r="K19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="14">
         <v>15221</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="6">
         <v>40.421140999999999</v>
       </c>
@@ -2483,16 +2542,16 @@
         <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G20" s="18">
-        <v>41866</v>
+        <v>58</v>
+      </c>
+      <c r="F20" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G20" s="22">
+        <v>42231</v>
       </c>
       <c r="I20" s="9">
         <v>25</v>
@@ -2500,41 +2559,44 @@
       <c r="J20" s="9">
         <v>25</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>17</v>
+      <c r="K20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="14">
         <v>15210</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="6">
         <v>40.454653</v>
       </c>
@@ -2545,16 +2607,16 @@
         <v>47</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G21" s="18">
-        <v>41866</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G21" s="22">
+        <v>42231</v>
       </c>
       <c r="H21" s="9">
         <v>40</v>
@@ -2562,41 +2624,44 @@
       <c r="I21" s="9">
         <v>40</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>17</v>
+      <c r="K21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="14">
         <v>15212</v>
       </c>
       <c r="R21" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U21" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="6">
         <v>40.413046999999999</v>
       </c>
@@ -2607,16 +2672,16 @@
         <v>52</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G22" s="18">
-        <v>41866</v>
+        <v>62</v>
+      </c>
+      <c r="F22" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G22" s="22">
+        <v>42231</v>
       </c>
       <c r="H22" s="9">
         <v>50</v>
@@ -2624,41 +2689,44 @@
       <c r="I22" s="9">
         <v>50</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>17</v>
+      <c r="K22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q22" s="14">
         <v>15217</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="T22" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="9">
         <v>40.446734999999997</v>
       </c>
@@ -2669,16 +2737,16 @@
         <v>53</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G23" s="18">
-        <v>41817</v>
+        <v>64</v>
+      </c>
+      <c r="F23" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G23" s="22">
+        <v>42182</v>
       </c>
       <c r="H23" s="9">
         <v>25</v>
@@ -2686,41 +2754,44 @@
       <c r="I23" s="9">
         <v>25</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>17</v>
+      <c r="K23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="9">
+        <v>1</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="20">
         <v>15219</v>
       </c>
       <c r="R23" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="6">
         <v>40.456544999999998</v>
       </c>
@@ -2731,16 +2802,16 @@
         <v>55</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G24" s="18">
-        <v>41866</v>
+        <v>68</v>
+      </c>
+      <c r="F24" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G24" s="22">
+        <v>42231</v>
       </c>
       <c r="H24" s="9">
         <v>100</v>
@@ -2748,41 +2819,44 @@
       <c r="I24" s="9">
         <v>100</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>17</v>
+      <c r="K24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="14">
         <v>15208</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="9">
         <v>40.446734999999997</v>
       </c>
@@ -2793,16 +2867,16 @@
         <v>60</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G25" s="18">
-        <v>41866</v>
+        <v>66</v>
+      </c>
+      <c r="F25" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G25" s="22">
+        <v>42231</v>
       </c>
       <c r="H25" s="9">
         <v>25</v>
@@ -2810,41 +2884,44 @@
       <c r="I25" s="9">
         <v>25</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>17</v>
+      <c r="K25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="20">
         <v>15219</v>
       </c>
       <c r="R25" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="9">
         <v>40.464666999999999</v>
       </c>
@@ -2855,16 +2932,16 @@
         <v>63</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G26" s="18">
-        <v>41866</v>
+        <v>70</v>
+      </c>
+      <c r="F26" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G26" s="22">
+        <v>42231</v>
       </c>
       <c r="H26" s="9">
         <v>25</v>
@@ -2872,41 +2949,44 @@
       <c r="I26" s="9">
         <v>25</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>17</v>
+      <c r="K26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="20">
         <v>15224</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="9">
         <v>40.450977999999999</v>
       </c>
@@ -2917,16 +2997,16 @@
         <v>64</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="18">
-        <v>41820</v>
-      </c>
-      <c r="G27" s="18">
-        <v>41866</v>
+        <v>157</v>
+      </c>
+      <c r="F27" s="22">
+        <v>42185</v>
+      </c>
+      <c r="G27" s="22">
+        <v>42231</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -2934,41 +3014,44 @@
       <c r="I27" s="9">
         <v>25</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>17</v>
+      <c r="K27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q27" s="20">
         <v>15205</v>
       </c>
       <c r="R27" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="T27" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="6">
         <v>40.391347000000003</v>
       </c>
@@ -2979,16 +3062,16 @@
         <v>74</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G28" s="18">
-        <v>41866</v>
+        <v>72</v>
+      </c>
+      <c r="F28" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G28" s="22">
+        <v>42231</v>
       </c>
       <c r="I28" s="9">
         <v>25</v>
@@ -2996,41 +3079,44 @@
       <c r="J28" s="9">
         <v>25</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>17</v>
+      <c r="K28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="14">
         <v>15226</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="6">
         <v>40.461494000000002</v>
       </c>
@@ -3041,16 +3127,16 @@
         <v>75</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G29" s="18">
-        <v>41866</v>
+        <v>74</v>
+      </c>
+      <c r="F29" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G29" s="22">
+        <v>42231</v>
       </c>
       <c r="I29" s="9">
         <v>25</v>
@@ -3058,41 +3144,44 @@
       <c r="J29" s="9">
         <v>25</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>17</v>
+      <c r="K29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="21">
         <v>15224</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="6">
         <v>40.424388999999998</v>
       </c>
@@ -3103,16 +3192,16 @@
         <v>81</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G30" s="18">
-        <v>41866</v>
+        <v>76</v>
+      </c>
+      <c r="F30" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G30" s="22">
+        <v>42231</v>
       </c>
       <c r="I30" s="9">
         <v>25</v>
@@ -3120,41 +3209,44 @@
       <c r="J30" s="9">
         <v>25</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>17</v>
+      <c r="K30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q30" s="14">
         <v>15207</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="6">
         <v>40.479196999999999</v>
       </c>
@@ -3165,16 +3257,16 @@
         <v>84</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="18">
-        <v>41820</v>
-      </c>
-      <c r="G31" s="18">
-        <v>41858</v>
+        <v>159</v>
+      </c>
+      <c r="F31" s="22">
+        <v>42185</v>
+      </c>
+      <c r="G31" s="22">
+        <v>42223</v>
       </c>
       <c r="H31" s="9">
         <v>25</v>
@@ -3182,41 +3274,44 @@
       <c r="I31" s="9">
         <v>25</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>23</v>
+      <c r="K31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <v>2</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="14">
         <v>15214</v>
       </c>
       <c r="R31" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S31" s="14" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="6">
         <v>40.472138000000001</v>
       </c>
@@ -3227,16 +3322,16 @@
         <v>91</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G32" s="18">
-        <v>41866</v>
+        <v>78</v>
+      </c>
+      <c r="F32" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G32" s="22">
+        <v>42231</v>
       </c>
       <c r="I32" s="9">
         <v>25</v>
@@ -3244,38 +3339,41 @@
       <c r="J32" s="9">
         <v>25</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>17</v>
+      <c r="K32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="14">
         <v>15212</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S32" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T32" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V32" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3289,16 +3387,16 @@
         <v>92</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G33" s="18">
-        <v>41866</v>
+        <v>80</v>
+      </c>
+      <c r="F33" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G33" s="22">
+        <v>42231</v>
       </c>
       <c r="I33" s="9">
         <v>75</v>
@@ -3306,38 +3404,41 @@
       <c r="J33" s="9">
         <v>75</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>17</v>
+      <c r="K33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="14">
         <v>15227</v>
       </c>
       <c r="R33" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S33" s="14" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="T33" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V33" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -3351,16 +3452,16 @@
         <v>94</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G34" s="18">
-        <v>41858</v>
+        <v>82</v>
+      </c>
+      <c r="F34" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G34" s="22">
+        <v>42223</v>
       </c>
       <c r="I34" s="9">
         <v>25</v>
@@ -3368,38 +3469,41 @@
       <c r="J34" s="9">
         <v>25</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>17</v>
+      <c r="K34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q34" s="14">
         <v>15106</v>
       </c>
       <c r="R34" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S34" s="14" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U34" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V34" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:36" s="3" customFormat="1">
@@ -3413,44 +3517,54 @@
         <v>100</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23">
+        <v>365</v>
+      </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+      <c r="K35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>2</v>
+      </c>
       <c r="O35" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P35" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q35" s="20">
         <v>15219</v>
       </c>
       <c r="R35" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S35" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="V35" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="V35" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -3477,16 +3591,16 @@
         <v>107</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="18">
-        <v>41820</v>
-      </c>
-      <c r="G36" s="18">
-        <v>41859</v>
+        <v>161</v>
+      </c>
+      <c r="F36" s="22">
+        <v>42185</v>
+      </c>
+      <c r="G36" s="22">
+        <v>42224</v>
       </c>
       <c r="H36" s="9">
         <v>25</v>
@@ -3494,38 +3608,41 @@
       <c r="I36" s="9">
         <v>25</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>17</v>
+      <c r="K36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q36" s="14">
         <v>15201</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S36" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="T36" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U36" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V36" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -3539,16 +3656,16 @@
         <v>116</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="18">
-        <v>41820</v>
-      </c>
-      <c r="G37" s="18">
-        <v>41858</v>
+        <v>17</v>
+      </c>
+      <c r="F37" s="22">
+        <v>42185</v>
+      </c>
+      <c r="G37" s="22">
+        <v>42223</v>
       </c>
       <c r="I37" s="9">
         <v>25</v>
@@ -3556,38 +3673,41 @@
       <c r="J37" s="9">
         <v>25</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>23</v>
+      <c r="K37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>2</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q37" s="20">
         <v>15208</v>
       </c>
       <c r="R37" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S37" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T37" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U37" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V37" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -3601,16 +3721,16 @@
         <v>117</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G38" s="18">
-        <v>41866</v>
+        <v>84</v>
+      </c>
+      <c r="F38" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G38" s="22">
+        <v>42231</v>
       </c>
       <c r="I38" s="9">
         <v>30</v>
@@ -3618,38 +3738,41 @@
       <c r="J38" s="9">
         <v>30</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>17</v>
+      <c r="K38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q38" s="20">
         <v>15206</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S38" s="14" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U38" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V38" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -3663,16 +3786,16 @@
         <v>120</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G39" s="18">
-        <v>41859</v>
+        <v>143</v>
+      </c>
+      <c r="F39" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G39" s="22">
+        <v>42224</v>
       </c>
       <c r="I39" s="9">
         <v>100</v>
@@ -3680,38 +3803,41 @@
       <c r="J39" s="9">
         <v>100</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>17</v>
+      <c r="K39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q39" s="14">
         <v>15219</v>
       </c>
       <c r="R39" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S39" s="14" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V39" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -3725,16 +3851,16 @@
         <v>124</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="18">
-        <v>41821</v>
-      </c>
-      <c r="G40" s="18">
-        <v>41858</v>
+        <v>21</v>
+      </c>
+      <c r="F40" s="22">
+        <v>42186</v>
+      </c>
+      <c r="G40" s="22">
+        <v>42223</v>
       </c>
       <c r="H40" s="9">
         <v>60</v>
@@ -3742,38 +3868,41 @@
       <c r="I40" s="9">
         <v>60</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>23</v>
+      <c r="K40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="9">
+        <v>2</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q40" s="14">
         <v>15219</v>
       </c>
       <c r="R40" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S40" s="14" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U40" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V40" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -3787,16 +3916,16 @@
         <v>137</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G41" s="18">
-        <v>41866</v>
+        <v>86</v>
+      </c>
+      <c r="F41" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G41" s="22">
+        <v>42231</v>
       </c>
       <c r="H41" s="9">
         <v>25</v>
@@ -3804,40 +3933,42 @@
       <c r="I41" s="9">
         <v>25</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>17</v>
+      <c r="K41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" s="9">
+        <v>1</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q41" s="14">
         <v>15219</v>
       </c>
       <c r="R41" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S41" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U41" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="V41" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="V41" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
@@ -3864,16 +3995,16 @@
         <v>139</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G42" s="18">
-        <v>41844</v>
+        <v>145</v>
+      </c>
+      <c r="F42" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G42" s="22">
+        <v>42209</v>
       </c>
       <c r="H42" s="9">
         <v>30</v>
@@ -3881,38 +4012,41 @@
       <c r="I42" s="9">
         <v>30</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>23</v>
+      <c r="K42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9">
+        <v>2</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q42" s="14">
         <v>15206</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U42" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V42" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -3926,16 +4060,16 @@
         <v>148</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G43" s="18">
-        <v>41866</v>
+        <v>88</v>
+      </c>
+      <c r="F43" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G43" s="22">
+        <v>42231</v>
       </c>
       <c r="H43" s="9">
         <v>25</v>
@@ -3943,38 +4077,41 @@
       <c r="I43" s="9">
         <v>25</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>17</v>
+      <c r="K43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" s="9">
+        <v>1</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P43" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q43" s="14">
         <v>15219</v>
       </c>
       <c r="R43" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S43" s="14" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V43" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -3988,16 +4125,16 @@
         <v>152</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G44" s="18">
-        <v>41866</v>
+        <v>90</v>
+      </c>
+      <c r="F44" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G44" s="22">
+        <v>42231</v>
       </c>
       <c r="H44" s="9">
         <v>40</v>
@@ -4005,38 +4142,41 @@
       <c r="I44" s="9">
         <v>40</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>17</v>
+      <c r="K44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <v>1</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q44" s="14">
         <v>15212</v>
       </c>
       <c r="R44" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S44" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V44" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -4050,16 +4190,16 @@
         <v>156</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="18">
-        <v>41827</v>
-      </c>
-      <c r="G45" s="18">
-        <v>41859</v>
+        <v>25</v>
+      </c>
+      <c r="F45" s="22">
+        <v>42192</v>
+      </c>
+      <c r="G45" s="22">
+        <v>42224</v>
       </c>
       <c r="I45" s="9">
         <v>25</v>
@@ -4067,38 +4207,41 @@
       <c r="J45" s="9">
         <v>25</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>17</v>
+      <c r="K45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q45" s="20">
         <v>15224</v>
       </c>
       <c r="R45" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="T45" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V45" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -4112,16 +4255,16 @@
         <v>168</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G46" s="18">
-        <v>41845</v>
+        <v>92</v>
+      </c>
+      <c r="F46" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G46" s="22">
+        <v>42210</v>
       </c>
       <c r="H46" s="9">
         <v>50</v>
@@ -4129,38 +4272,41 @@
       <c r="I46" s="9">
         <v>50</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>17</v>
+      <c r="K46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9">
+        <v>1</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q46" s="14">
         <v>15205</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V46" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -4174,42 +4320,53 @@
         <v>170</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23">
+        <v>365</v>
+      </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="K47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="19">
+        <v>2</v>
+      </c>
       <c r="O47" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q47" s="20">
         <v>15260</v>
       </c>
       <c r="R47" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S47" s="20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="T47" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V47" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -4223,16 +4380,16 @@
         <v>205</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="18">
-        <v>41820</v>
-      </c>
-      <c r="G48" s="18">
-        <v>41859</v>
+        <v>19</v>
+      </c>
+      <c r="F48" s="22">
+        <v>42185</v>
+      </c>
+      <c r="G48" s="22">
+        <v>42224</v>
       </c>
       <c r="H48" s="9">
         <v>25</v>
@@ -4240,41 +4397,44 @@
       <c r="I48" s="9">
         <v>25</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>17</v>
+      <c r="K48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" s="9">
+        <v>1</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q48" s="14">
         <v>15210</v>
       </c>
       <c r="R48" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S48" s="14" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="T48" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U48" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="6">
         <v>40.472835000000003</v>
       </c>
@@ -4285,45 +4445,56 @@
         <v>211</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23">
+        <v>365</v>
+      </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
+      <c r="K49" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="19">
+        <v>2</v>
+      </c>
       <c r="O49" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q49" s="20">
         <v>15201</v>
       </c>
       <c r="R49" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S49" s="14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="T49" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V49" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="6">
         <v>40.456544999999998</v>
       </c>
@@ -4334,16 +4505,16 @@
         <v>217</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G50" s="18">
-        <v>41866</v>
+        <v>98</v>
+      </c>
+      <c r="F50" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G50" s="22">
+        <v>42231</v>
       </c>
       <c r="H50" s="9">
         <v>40</v>
@@ -4351,41 +4522,44 @@
       <c r="I50" s="9">
         <v>40</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>17</v>
+      <c r="K50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q50" s="20">
         <v>15208</v>
       </c>
       <c r="R50" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S50" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T50" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U50" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="9">
         <v>40.456704000000002</v>
       </c>
@@ -4396,16 +4570,16 @@
         <v>248</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G51" s="18">
-        <v>41852</v>
+        <v>100</v>
+      </c>
+      <c r="F51" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G51" s="22">
+        <v>42217</v>
       </c>
       <c r="H51" s="9">
         <v>25</v>
@@ -4413,41 +4587,44 @@
       <c r="I51" s="9">
         <v>25</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>17</v>
+      <c r="K51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q51" s="20">
         <v>15233</v>
       </c>
       <c r="R51" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S51" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="T51" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U51" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V51" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="6">
         <v>40.455813999999997</v>
       </c>
@@ -4458,16 +4635,16 @@
         <v>251</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G52" s="18">
-        <v>41866</v>
+        <v>147</v>
+      </c>
+      <c r="F52" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G52" s="22">
+        <v>42231</v>
       </c>
       <c r="H52" s="9">
         <v>75</v>
@@ -4475,41 +4652,44 @@
       <c r="I52" s="9">
         <v>75</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>17</v>
+      <c r="K52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" s="9">
+        <v>1</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q52" s="14">
         <v>15208</v>
       </c>
       <c r="R52" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S52" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U52" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V52" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="6">
         <v>40.478853000000001</v>
       </c>
@@ -4520,16 +4700,16 @@
         <v>257</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G53" s="18">
-        <v>41866</v>
+        <v>102</v>
+      </c>
+      <c r="F53" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G53" s="22">
+        <v>42231</v>
       </c>
       <c r="H53" s="9">
         <v>25</v>
@@ -4537,41 +4717,44 @@
       <c r="I53" s="9">
         <v>25</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>17</v>
+      <c r="K53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q53" s="14">
         <v>15212</v>
       </c>
       <c r="R53" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S53" s="14" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="T53" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U53" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="9">
         <v>40.445528000000003</v>
       </c>
@@ -4582,55 +4765,58 @@
         <v>264</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G54" s="18">
-        <v>41866</v>
+        <v>108</v>
+      </c>
+      <c r="F54" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G54" s="22">
+        <v>42231</v>
       </c>
       <c r="I54" s="9">
         <v>25</v>
       </c>
-      <c r="K54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>17</v>
+      <c r="K54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" s="9">
+        <v>1</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q54" s="20">
         <v>15219</v>
       </c>
       <c r="R54" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S54" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="T54" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U54" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="6">
         <v>40.417966</v>
       </c>
@@ -4641,16 +4827,16 @@
         <v>265</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G55" s="18">
-        <v>41866</v>
+        <v>104</v>
+      </c>
+      <c r="F55" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G55" s="22">
+        <v>42231</v>
       </c>
       <c r="H55" s="9">
         <v>25</v>
@@ -4658,41 +4844,44 @@
       <c r="I55" s="9">
         <v>25</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>17</v>
+      <c r="K55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q55" s="14">
         <v>15223</v>
       </c>
       <c r="R55" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S55" s="14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U55" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="6">
         <v>40.458089999999999</v>
       </c>
@@ -4703,55 +4892,58 @@
         <v>273</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G56" s="18">
-        <v>41866</v>
+        <v>106</v>
+      </c>
+      <c r="F56" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G56" s="22">
+        <v>42231</v>
       </c>
       <c r="I56" s="9">
         <v>25</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>17</v>
+      <c r="K56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>1</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q56" s="14">
         <v>15204</v>
       </c>
       <c r="R56" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S56" s="14" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U56" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V56" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="6">
         <v>40.410457000000001</v>
       </c>
@@ -4762,55 +4954,58 @@
         <v>292</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G57" s="18">
-        <v>41866</v>
+        <v>110</v>
+      </c>
+      <c r="F57" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G57" s="22">
+        <v>42231</v>
       </c>
       <c r="I57" s="9">
         <v>25</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>17</v>
+      <c r="K57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9">
+        <v>1</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q57" s="14">
         <v>15210</v>
       </c>
       <c r="R57" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S57" s="14" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="T57" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U57" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V57" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="6">
         <v>40.405624000000003</v>
       </c>
@@ -4821,16 +5016,16 @@
         <v>306</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G58" s="18">
-        <v>41866</v>
+        <v>112</v>
+      </c>
+      <c r="F58" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G58" s="22">
+        <v>42231</v>
       </c>
       <c r="I58" s="9">
         <v>25</v>
@@ -4838,41 +5033,44 @@
       <c r="J58" s="9">
         <v>25</v>
       </c>
-      <c r="K58" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>17</v>
+      <c r="K58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" s="9">
+        <v>1</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P58" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q58" s="14">
         <v>15226</v>
       </c>
       <c r="R58" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S58" s="14" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="T58" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U58" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V58" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="6">
         <v>40.431384000000001</v>
       </c>
@@ -4883,16 +5081,16 @@
         <v>308</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G59" s="18">
-        <v>41866</v>
+        <v>114</v>
+      </c>
+      <c r="F59" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G59" s="22">
+        <v>42231</v>
       </c>
       <c r="I59" s="9">
         <v>25</v>
@@ -4900,41 +5098,44 @@
       <c r="J59" s="9">
         <v>25</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>17</v>
+      <c r="K59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" s="9">
+        <v>1</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P59" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q59" s="14">
         <v>15211</v>
       </c>
       <c r="R59" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S59" s="14" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="T59" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V59" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="6">
         <v>40.409602</v>
       </c>
@@ -4945,16 +5146,16 @@
         <v>315</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G60" s="18">
-        <v>41866</v>
+        <v>116</v>
+      </c>
+      <c r="F60" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G60" s="22">
+        <v>42231</v>
       </c>
       <c r="H60" s="9">
         <v>25</v>
@@ -4962,41 +5163,44 @@
       <c r="I60" s="9">
         <v>25</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>17</v>
+      <c r="K60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" s="9">
+        <v>1</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q60" s="14">
         <v>15207</v>
       </c>
       <c r="R60" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S60" s="14" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="T60" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U60" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V60" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="6">
         <v>40.447231000000002</v>
       </c>
@@ -5007,43 +5211,55 @@
         <v>323</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>57</v>
+        <v>149</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22">
+        <v>365</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
+      <c r="K61" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>2</v>
+      </c>
       <c r="O61" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P61" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q61" s="20">
         <v>15208</v>
       </c>
       <c r="R61" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S61" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T61" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U61" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="6">
         <v>40.467319000000003</v>
       </c>
@@ -5054,16 +5270,16 @@
         <v>324</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G62" s="18">
-        <v>41837</v>
+        <v>118</v>
+      </c>
+      <c r="F62" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G62" s="22">
+        <v>42202</v>
       </c>
       <c r="I62" s="9">
         <v>25</v>
@@ -5071,41 +5287,44 @@
       <c r="J62" s="9">
         <v>25</v>
       </c>
-      <c r="K62" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>23</v>
+      <c r="K62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" s="9">
+        <v>2</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P62" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q62" s="14">
         <v>15206</v>
       </c>
       <c r="R62" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S62" s="14" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="T62" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U62" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="6">
         <v>40.468307000000003</v>
       </c>
@@ -5116,16 +5335,16 @@
         <v>327</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G63" s="18">
-        <v>41859</v>
+        <v>120</v>
+      </c>
+      <c r="F63" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G63" s="22">
+        <v>42224</v>
       </c>
       <c r="I63" s="9">
         <v>25</v>
@@ -5133,41 +5352,44 @@
       <c r="J63" s="9">
         <v>25</v>
       </c>
-      <c r="K63" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>17</v>
+      <c r="K63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N63" s="9">
+        <v>1</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P63" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q63" s="14">
         <v>15212</v>
       </c>
       <c r="R63" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S63" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T63" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U63" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="9">
         <v>40.462657999999998</v>
       </c>
@@ -5178,16 +5400,16 @@
         <v>349</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="18">
-        <v>41862</v>
-      </c>
-      <c r="G64" s="18">
-        <v>41866</v>
+        <v>32</v>
+      </c>
+      <c r="F64" s="22">
+        <v>42227</v>
+      </c>
+      <c r="G64" s="22">
+        <v>42231</v>
       </c>
       <c r="H64" s="9">
         <v>25</v>
@@ -5195,41 +5417,44 @@
       <c r="I64" s="9">
         <v>25</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>17</v>
+      <c r="K64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9">
+        <v>1</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q64" s="20">
         <v>15201</v>
       </c>
       <c r="R64" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="T64" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U64" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V64" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="9">
         <v>40.451659999999997</v>
       </c>
@@ -5240,16 +5465,16 @@
         <v>353</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G65" s="18">
-        <v>41866</v>
+        <v>122</v>
+      </c>
+      <c r="F65" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G65" s="22">
+        <v>42231</v>
       </c>
       <c r="H65" s="9">
         <v>25</v>
@@ -5257,41 +5482,44 @@
       <c r="I65" s="9">
         <v>25</v>
       </c>
-      <c r="K65" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>17</v>
+      <c r="K65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" s="9">
+        <v>1</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P65" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q65" s="20">
         <v>15208</v>
       </c>
       <c r="R65" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S65" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="T65" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U65" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V65" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="9">
         <v>40.449829999999999</v>
       </c>
@@ -5302,16 +5530,16 @@
         <v>355</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="18">
-        <v>41834</v>
-      </c>
-      <c r="G66" s="18">
-        <v>41837</v>
+        <v>30</v>
+      </c>
+      <c r="F66" s="22">
+        <v>42199</v>
+      </c>
+      <c r="G66" s="22">
+        <v>42202</v>
       </c>
       <c r="H66" s="9">
         <v>55</v>
@@ -5319,41 +5547,44 @@
       <c r="I66" s="9">
         <v>55</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>23</v>
+      <c r="K66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9">
+        <v>2</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P66" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q66" s="20">
         <v>15212</v>
       </c>
       <c r="R66" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S66" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T66" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U66" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V66" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="9">
         <v>40.431849</v>
       </c>
@@ -5364,16 +5595,16 @@
         <v>355</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="18">
-        <v>41848</v>
-      </c>
-      <c r="G67" s="18">
-        <v>41851</v>
+        <v>27</v>
+      </c>
+      <c r="F67" s="22">
+        <v>42213</v>
+      </c>
+      <c r="G67" s="22">
+        <v>42216</v>
       </c>
       <c r="H67" s="9">
         <v>55</v>
@@ -5381,41 +5612,44 @@
       <c r="I67" s="9">
         <v>55</v>
       </c>
-      <c r="K67" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>23</v>
+      <c r="K67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>2</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q67" s="20">
         <v>15213</v>
       </c>
       <c r="R67" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S67" s="14" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="T67" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U67" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="6">
         <v>40.413193</v>
       </c>
@@ -5426,16 +5660,16 @@
         <v>370</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F68" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G68" s="18">
-        <v>41866</v>
+        <v>124</v>
+      </c>
+      <c r="F68" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G68" s="22">
+        <v>42231</v>
       </c>
       <c r="I68" s="9">
         <v>25</v>
@@ -5443,41 +5677,44 @@
       <c r="J68" s="9">
         <v>25</v>
       </c>
-      <c r="K68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>17</v>
+      <c r="K68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" s="9">
+        <v>1</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q68" s="14">
         <v>15219</v>
       </c>
       <c r="R68" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S68" s="14" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="T68" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U68" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V68" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="6">
         <v>40.483992999999998</v>
       </c>
@@ -5488,16 +5725,16 @@
         <v>371</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F69" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G69" s="18">
-        <v>41852</v>
+        <v>151</v>
+      </c>
+      <c r="F69" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G69" s="22">
+        <v>42217</v>
       </c>
       <c r="H69" s="9">
         <v>35</v>
@@ -5505,41 +5742,44 @@
       <c r="I69" s="9">
         <v>35</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>17</v>
+      <c r="K69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" s="9">
+        <v>1</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q69" s="20">
         <v>15212</v>
       </c>
       <c r="R69" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S69" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T69" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U69" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V69" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="6">
         <v>40.458750000000002</v>
       </c>
@@ -5550,16 +5790,16 @@
         <v>374</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G70" s="18">
-        <v>41866</v>
+        <v>126</v>
+      </c>
+      <c r="F70" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G70" s="22">
+        <v>42231</v>
       </c>
       <c r="I70" s="9">
         <v>25</v>
@@ -5567,41 +5807,44 @@
       <c r="J70" s="9">
         <v>25</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N70" s="9" t="s">
-        <v>17</v>
+      <c r="K70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N70" s="9">
+        <v>1</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q70" s="14">
         <v>15212</v>
       </c>
       <c r="R70" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S70" s="14" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="T70" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U70" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="6">
         <v>40.444446999999997</v>
       </c>
@@ -5612,16 +5855,16 @@
         <v>378</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G71" s="18">
-        <v>41866</v>
+        <v>128</v>
+      </c>
+      <c r="F71" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G71" s="22">
+        <v>42231</v>
       </c>
       <c r="H71" s="9">
         <v>30</v>
@@ -5629,41 +5872,44 @@
       <c r="I71" s="9">
         <v>40</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>17</v>
+      <c r="K71" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N71" s="9">
+        <v>1</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P71" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q71" s="14">
         <v>15219</v>
       </c>
       <c r="R71" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S71" s="14" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T71" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U71" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="28">
       <c r="A72" s="9">
         <v>40.443134000000001</v>
       </c>
@@ -5674,16 +5920,16 @@
         <v>379</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" s="18">
-        <v>41834</v>
-      </c>
-      <c r="G72" s="18">
-        <v>41852</v>
+        <v>29</v>
+      </c>
+      <c r="F72" s="22">
+        <v>42199</v>
+      </c>
+      <c r="G72" s="22">
+        <v>42217</v>
       </c>
       <c r="H72" s="9">
         <v>75</v>
@@ -5691,41 +5937,44 @@
       <c r="I72" s="9">
         <v>75</v>
       </c>
-      <c r="K72" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>17</v>
+      <c r="K72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N72" s="9">
+        <v>1</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q72" s="20">
         <v>15213</v>
       </c>
       <c r="R72" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S72" s="14" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="T72" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U72" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V72" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="6">
         <v>40.449587000000001</v>
       </c>
@@ -5736,16 +5985,16 @@
         <v>380</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F73" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G73" s="18">
-        <v>41866</v>
+        <v>153</v>
+      </c>
+      <c r="F73" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G73" s="22">
+        <v>42231</v>
       </c>
       <c r="I73" s="9">
         <v>25</v>
@@ -5753,41 +6002,44 @@
       <c r="J73" s="9">
         <v>25</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N73" s="9" t="s">
-        <v>17</v>
+      <c r="K73" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" s="9">
+        <v>1</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P73" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q73" s="14">
         <v>15219</v>
       </c>
       <c r="R73" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S73" s="14" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T73" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U73" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V73" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="6">
         <v>40.411943999999998</v>
       </c>
@@ -5798,61 +6050,64 @@
         <v>381</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F74" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G74" s="18">
-        <v>41866</v>
+        <v>130</v>
+      </c>
+      <c r="F74" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G74" s="22">
+        <v>42231</v>
       </c>
       <c r="H74" s="9">
         <v>25</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J74" s="9">
         <v>25</v>
       </c>
-      <c r="K74" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>17</v>
+      <c r="K74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="9">
+        <v>1</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q74" s="14">
         <v>15210</v>
       </c>
       <c r="R74" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S74" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="T74" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="U74" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="28">
+        <v>176</v>
+      </c>
+      <c r="V74" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="9">
         <v>40.46114</v>
       </c>
@@ -5863,55 +6118,58 @@
         <v>382</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F75" s="18">
-        <v>41813</v>
-      </c>
-      <c r="G75" s="18">
-        <v>41852</v>
+        <v>155</v>
+      </c>
+      <c r="F75" s="22">
+        <v>42178</v>
+      </c>
+      <c r="G75" s="22">
+        <v>42217</v>
       </c>
       <c r="I75" s="9">
         <v>25</v>
       </c>
-      <c r="K75" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N75" s="9" t="s">
-        <v>17</v>
+      <c r="K75" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" s="9">
+        <v>1</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q75" s="20">
         <v>15212</v>
       </c>
       <c r="R75" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S75" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T75" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U75" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V75" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="6">
         <v>40.455584000000002</v>
       </c>
@@ -5922,16 +6180,16 @@
         <v>383</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G76" s="18">
-        <v>41866</v>
+        <v>133</v>
+      </c>
+      <c r="F76" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G76" s="22">
+        <v>42231</v>
       </c>
       <c r="H76" s="9">
         <v>25</v>
@@ -5939,41 +6197,44 @@
       <c r="I76" s="9">
         <v>25</v>
       </c>
-      <c r="K76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>17</v>
+      <c r="K76" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="9">
+        <v>1</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q76" s="14">
         <v>15212</v>
       </c>
       <c r="R76" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S76" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="T76" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="U76" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="V76" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="9">
         <v>40.470480000000002</v>
       </c>
@@ -5984,16 +6245,16 @@
         <v>2429</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" s="18">
-        <v>41806</v>
-      </c>
-      <c r="G77" s="18">
-        <v>41866</v>
+        <v>135</v>
+      </c>
+      <c r="F77" s="22">
+        <v>42171</v>
+      </c>
+      <c r="G77" s="22">
+        <v>42231</v>
       </c>
       <c r="H77" s="9">
         <v>25</v>
@@ -6001,38 +6262,41 @@
       <c r="I77" s="9">
         <v>25</v>
       </c>
-      <c r="K77" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>23</v>
+      <c r="K77" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="9">
+        <v>2</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P77" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Q77" s="20">
         <v>15224</v>
       </c>
       <c r="R77" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S77" s="20" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="T77" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="U77" s="14" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="V77" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6084,31 +6348,31 @@
         <v>-79.933102000000005</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H1" s="10">
         <v>15207</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="9"/>
@@ -6137,31 +6401,31 @@
         <v>-79.936824999999999</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H2" s="10">
         <v>15217</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="9"/>
@@ -6190,31 +6454,31 @@
         <v>-79.942569000000006</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H3" s="10">
         <v>15207</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="9"/>
@@ -6243,31 +6507,31 @@
         <v>-79.893032000000005</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H4" s="10">
         <v>15208</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="9"/>
@@ -6296,31 +6560,31 @@
         <v>-79.957593000000003</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H5" s="10">
         <v>15201</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="9"/>
@@ -6349,31 +6613,31 @@
         <v>-79.913673000000003</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H6" s="10">
         <v>15206</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9"/>
@@ -6402,31 +6666,31 @@
         <v>-80.035803000000001</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H7" s="10">
         <v>15212</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="9"/>
@@ -6455,31 +6719,31 @@
         <v>-80.007210000000001</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H8" s="10">
         <v>15212</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9"/>
@@ -6508,31 +6772,31 @@
         <v>-80.001334999999997</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H9" s="10">
         <v>15214</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9"/>
@@ -6561,31 +6825,31 @@
         <v>-80.024418999999995</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H10" s="10">
         <v>15216</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="9"/>
@@ -6614,31 +6878,31 @@
         <v>-80.007942</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H11" s="10">
         <v>15211</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9"/>
@@ -6667,31 +6931,31 @@
         <v>-80.056555000000003</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H12" s="10">
         <v>15204</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9"/>
@@ -6720,31 +6984,31 @@
         <v>-79.989221000000001</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H13" s="10">
         <v>15203</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9"/>
@@ -6773,31 +7037,31 @@
         <v>-80.034800000000004</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H14" s="10">
         <v>15220</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="9"/>
